--- a/data/trans_bre/P19C06-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P19C06-Estudios-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.965382540332755</v>
+        <v>-1.90222882308507</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.3072862879345603</v>
+        <v>-0.2837988634496763</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.8821525693834144</v>
+        <v>-0.8993924563584724</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.863822495759254</v>
+        <v>-1.536384588844374</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.8040700561415968</v>
+        <v>-0.8116322486690878</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.3278429836485527</v>
+        <v>-0.3444974214831065</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.5807021970247985</v>
+        <v>-0.5820825394389092</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.6820167041389047</v>
+        <v>-0.6218488616623086</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2261758814497938</v>
+        <v>0.330259992206893</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.421141221549786</v>
+        <v>1.519734827052909</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.968101072091869</v>
+        <v>1.912854580669923</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.184208509203744</v>
+        <v>1.241120130163798</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.4043599029887721</v>
+        <v>0.4727730652220041</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>5.361721761862121</v>
+        <v>7.391491773231126</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>5.00086014602753</v>
+        <v>4.342465110303596</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>2.346355350997548</v>
+        <v>2.417242018567527</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.5573824886915701</v>
+        <v>-0.5252466539455252</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-0.3318998808750366</v>
+        <v>-0.3854126736377466</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.9732412836157809</v>
+        <v>-1.002857367235966</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-0.3210136398699664</v>
+        <v>-0.3660138442305036</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.4576486243743482</v>
+        <v>-0.4415106822098909</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.2735269969272761</v>
+        <v>-0.2940888047116024</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.5434342471455161</v>
+        <v>-0.5650875088631827</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.3561222694607981</v>
+        <v>-0.3892931771563143</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.003923107638531</v>
+        <v>1.000886442021739</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.3990717330474</v>
+        <v>1.246438592936377</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.6256769390756954</v>
+        <v>0.5661007766564935</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.6729181595396247</v>
+        <v>0.6722201200506985</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.907558109322477</v>
+        <v>1.923094465260218</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>2.037856547322775</v>
+        <v>1.895103219639192</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.7817100374330139</v>
+        <v>0.6801969096197278</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.572455575688947</v>
+        <v>1.713043628571623</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>0.7816057930429409</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.7913253088662333</v>
+        <v>0.791325308866233</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7470952718059368</v>
@@ -849,7 +849,7 @@
         <v>0.969040271330926</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>1.248861246293753</v>
+        <v>1.248861246293752</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.7242863081433435</v>
+        <v>-0.7048479258483586</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.346800408655083</v>
+        <v>-1.326421651884702</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.3909883802311228</v>
+        <v>-0.4545448912204409</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.1418002037996412</v>
+        <v>-0.2104643828492822</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.6236687935642357</v>
+        <v>-0.5882073536310782</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.7348188401334235</v>
+        <v>-0.7159980456576291</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.4778802072646465</v>
+        <v>-0.4903482485794009</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.3240207036087453</v>
+        <v>-0.3515106581825996</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.511429030526462</v>
+        <v>2.556631158455017</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.853644038657544</v>
+        <v>1.915171717729827</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.286500988492372</v>
+        <v>2.381297274596749</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.76260250210905</v>
+        <v>1.799877045299095</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>6.563742088010974</v>
+        <v>9.196277267814988</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>3.81728715917169</v>
+        <v>3.752417511014961</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>8.328376226122863</v>
+        <v>10.05115391569915</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>6.759581318000333</v>
+        <v>6.24560493557441</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>0.1492556404906205</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.3259864753612092</v>
+        <v>0.3259864753612088</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03022429080149189</v>
@@ -949,7 +949,7 @@
         <v>0.1253100350283396</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.4227553198504032</v>
+        <v>0.4227553198504027</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.4706827163968827</v>
+        <v>-0.5134694869571934</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-0.1378883023264565</v>
+        <v>-0.1267810462202078</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-0.490444162619352</v>
+        <v>-0.5134874560876843</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-0.1145482957951167</v>
+        <v>-0.1589840600858365</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3490944689780424</v>
+        <v>-0.36908475805797</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1564956428639718</v>
+        <v>-0.1117416794430195</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.3248391274423914</v>
+        <v>-0.3433846987918717</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1327613284048074</v>
+        <v>-0.1603668443158144</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.6902727331147817</v>
+        <v>0.6111253853238487</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>1.042568638012282</v>
+        <v>1.107104564771536</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.7531138923978816</v>
+        <v>0.7278694862352677</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.728566554973804</v>
+        <v>0.7425542968712291</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.9274065858514481</v>
+        <v>0.7883410630180512</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.405674797869368</v>
+        <v>1.494042179039128</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.8584947563828046</v>
+        <v>0.8001312405953067</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.29139769379727</v>
+        <v>1.422155521433901</v>
       </c>
     </row>
     <row r="16">
